--- a/pages/Aplicativo/Reportes/Reporte_Estaciones_Retiradas.xlsx
+++ b/pages/Aplicativo/Reportes/Reporte_Estaciones_Retiradas.xlsx
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>45323.9345446724</v>
+        <v>45359.66276643945</v>
       </c>
     </row>
     <row r="9"/>
